--- a/list.xlsx
+++ b/list.xlsx
@@ -19,42 +19,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>first_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>Makara</t>
-  </si>
-  <si>
-    <t>Sinat</t>
-  </si>
-  <si>
-    <t>Srey Pov</t>
-  </si>
-  <si>
-    <t>Srey Leak</t>
-  </si>
-  <si>
-    <t>Pin</t>
-  </si>
-  <si>
-    <t>Pon</t>
-  </si>
-  <si>
-    <t>Lek</t>
-  </si>
-  <si>
-    <t>Hut</t>
-  </si>
-  <si>
-    <t>Sem</t>
+    <t>Makara Pon</t>
+  </si>
+  <si>
+    <t>Makara Pin</t>
+  </si>
+  <si>
+    <t>Sinat Lek</t>
+  </si>
+  <si>
+    <t>Srey Pov Hut</t>
+  </si>
+  <si>
+    <t>Srey Leak Sem</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -372,11 +357,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -384,70 +367,52 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>2025</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2025</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2025</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2025</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2025</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
